--- a/SRF/L5_RSR.xlsx
+++ b/SRF/L5_RSR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inpebr-my.sharepoint.com/personal/daniel_maciel_inpe_br/Documents/Doutorado/Algoritmos KD/kd_algorithms/Organizacao/Simulacao_de_bandas/Simulation_satellite_signal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22bc09a21a0d65ca/Documentos/GitHub/BandSimulation/SRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{44D7FBE2-088F-47CB-92F0-419F8BA0F9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B26825FA-B875-41E1-B36D-9EF1F36C8DD1}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{44D7FBE2-088F-47CB-92F0-419F8BA0F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABAEBAE3-3FCA-45FB-A0A3-348DE0F393AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3AEBAB2-248C-4AEE-B916-0C49A9D7B3B3}"/>
+    <workbookView xWindow="1095" yWindow="165" windowWidth="21600" windowHeight="11295" xr2:uid="{C3AEBAB2-248C-4AEE-B916-0C49A9D7B3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,23 @@
     <t>Wave</t>
   </si>
   <si>
-    <t>ETMB1</t>
+    <t>TMB1</t>
   </si>
   <si>
-    <t>ETMB2</t>
+    <t>TMB2</t>
   </si>
   <si>
-    <t>ETMB3</t>
+    <t>TMB3</t>
   </si>
   <si>
-    <t>ETMB4</t>
+    <t>TMB4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,11 +101,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5FF260-A3A5-4BFA-8E44-8A6B81F8E6F9}">
   <dimension ref="A1:E507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="E503" sqref="E503:E507"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +625,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9475,10 +9484,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F5C87536B939CB458146C9EAD01875DA" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7a99bd52d27a1913fef1e17b1fee6961">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4d9b5661-2534-4f87-b4b7-929147169460" xmlns:ns4="e05c5120-f3a1-46c2-8989-63bd3e224397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb27a844070c55cf683f79880c4823b1" ns3:_="" ns4:_="">
     <xsd:import namespace="4d9b5661-2534-4f87-b4b7-929147169460"/>
@@ -9701,22 +9726,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CEC59-3D76-4E93-9D75-70DCE0B0B7B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e05c5120-f3a1-46c2-8989-63bd3e224397"/>
+    <ds:schemaRef ds:uri="4d9b5661-2534-4f87-b4b7-929147169460"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B4E19A-D595-4316-8FE6-71E554299401}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D48F640-1680-47E3-9641-92305CB0221E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9733,29 +9768,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B4E19A-D595-4316-8FE6-71E554299401}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CEC59-3D76-4E93-9D75-70DCE0B0B7B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e05c5120-f3a1-46c2-8989-63bd3e224397"/>
-    <ds:schemaRef ds:uri="4d9b5661-2534-4f87-b4b7-929147169460"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>